--- a/workfile/锐安项目文档/app/待办/APP待办开发工范围-0829.xlsx
+++ b/workfile/锐安项目文档/app/待办/APP待办开发工范围-0829.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="5130"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="11760" windowHeight="5130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$143</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="170">
   <si>
     <t>待办名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -574,6 +574,14 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类资金使用申请_作废</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类资金支付申请</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -913,6 +921,270 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,18 +1197,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -946,263 +1206,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1510,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83:C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1549,10 +1557,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="89">
+      <c r="B2" s="62">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1568,9 +1576,9 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="92" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="42" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1579,53 +1587,53 @@
       <c r="E3" s="5">
         <v>0.5</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="42" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="100"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E4" s="5">
         <v>0.5</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="93"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="101"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="89">
+      <c r="B7" s="62">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1641,9 +1649,9 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="116" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="45" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1652,30 +1660,30 @@
       <c r="E8" s="5">
         <v>0.5</v>
       </c>
-      <c r="F8" s="92" t="s">
+      <c r="F8" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="92" t="s">
+      <c r="G8" s="42" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="90"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="117"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="92" t="s">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="42" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1684,43 +1692,43 @@
       <c r="E10" s="5">
         <v>0.5</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="42" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="100"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E11" s="5">
         <v>0.5</v>
       </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="90"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="92" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1729,43 +1737,43 @@
       <c r="E13" s="8">
         <v>2</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="42" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="100"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="92" t="s">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1774,54 +1782,54 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="92" t="s">
+      <c r="F16" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G16" s="121" t="s">
+      <c r="G16" s="50" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="90"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="100"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="100"/>
-      <c r="G17" s="122"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="123"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="94" t="s">
+      <c r="A20" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="94"/>
-      <c r="C20" s="99" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="70" t="s">
         <v>135</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1830,43 +1838,43 @@
       <c r="E20" s="13">
         <v>1</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="G20" s="118" t="s">
+      <c r="G20" s="47" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="99"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="13">
         <v>1</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="119"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="99"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
       </c>
-      <c r="F22" s="98"/>
-      <c r="G22" s="120"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="96" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="67" t="s">
         <v>136</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -1875,1470 +1883,1572 @@
       <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="F23" s="99" t="s">
+      <c r="F23" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="G23" s="118" t="s">
+      <c r="G23" s="47" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="97"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="119"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="98"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E25" s="13">
         <v>1</v>
       </c>
-      <c r="F25" s="99"/>
-      <c r="G25" s="120"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="66" t="s">
+      <c r="A27" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="66">
+      <c r="B27" s="111">
         <v>1</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="57" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="80" t="s">
+      <c r="F27" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="35"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="67"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="67"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="34" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="57" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="67" t="s">
+      <c r="F30" s="95"/>
+      <c r="G30" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="67"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="36"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="67"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="34" t="s">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="57" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="67" t="s">
+      <c r="F33" s="95"/>
+      <c r="G33" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="35"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="67"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="53"/>
     </row>
     <row r="35" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="67"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="34" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="57" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="67" t="s">
+      <c r="F36" s="95"/>
+      <c r="G36" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="66"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="35"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="34" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="57" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="67" t="s">
+      <c r="F39" s="95"/>
+      <c r="G39" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="35"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="67"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="36"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="67"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="66"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="34" t="s">
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="57" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="67" t="s">
+      <c r="F42" s="95"/>
+      <c r="G42" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="66"/>
-      <c r="B43" s="66"/>
-      <c r="C43" s="35"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="61"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="67"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="95"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="66"/>
-      <c r="B44" s="66"/>
-      <c r="C44" s="36"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="67"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="53"/>
     </row>
     <row r="45" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="66"/>
-      <c r="B45" s="66"/>
-      <c r="C45" s="34" t="s">
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="57" t="s">
         <v>41</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="67" t="s">
+      <c r="F45" s="95"/>
+      <c r="G45" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="66"/>
-      <c r="B46" s="66"/>
-      <c r="C46" s="35"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="67"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="66"/>
-      <c r="B47" s="66"/>
-      <c r="C47" s="36"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="59"/>
       <c r="D47" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="67"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="66"/>
-      <c r="B48" s="66"/>
-      <c r="C48" s="34" t="s">
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="57" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="67" t="s">
+      <c r="F48" s="95"/>
+      <c r="G48" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="66"/>
-      <c r="B49" s="66"/>
-      <c r="C49" s="35"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="53"/>
     </row>
     <row r="50" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="66"/>
-      <c r="B50" s="66"/>
-      <c r="C50" s="36"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="59"/>
       <c r="D50" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="67"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="53"/>
     </row>
     <row r="51" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="34" t="s">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="67" t="s">
+      <c r="F51" s="95"/>
+      <c r="G51" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="66"/>
-      <c r="B52" s="66"/>
-      <c r="C52" s="35"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="67"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="53"/>
     </row>
     <row r="53" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="66"/>
-      <c r="B53" s="66"/>
-      <c r="C53" s="36"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="59"/>
       <c r="D53" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="67"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="53"/>
     </row>
     <row r="54" spans="1:7" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="66"/>
-      <c r="B54" s="66"/>
-      <c r="C54" s="34" t="s">
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="57" t="s">
         <v>150</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="67" t="s">
+      <c r="F54" s="95"/>
+      <c r="G54" s="53" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="35"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="61"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="67"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="53"/>
     </row>
     <row r="56" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="66"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="36"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="62"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="67"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="53"/>
     </row>
     <row r="57" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="66"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="68" t="s">
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="112" t="s">
         <v>45</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="74" t="s">
+      <c r="F57" s="95"/>
+      <c r="G57" s="83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="66"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="69"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="113"/>
       <c r="D58" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E58" s="16"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="74"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="83"/>
     </row>
     <row r="59" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="66"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="70"/>
+      <c r="A59" s="111"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="114"/>
       <c r="D59" s="15" t="s">
         <v>142</v>
       </c>
       <c r="E59" s="16"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="74"/>
+      <c r="F59" s="95"/>
+      <c r="G59" s="83"/>
     </row>
     <row r="60" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="66"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="68" t="s">
+      <c r="A60" s="111"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="112" t="s">
         <v>46</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="74" t="s">
+      <c r="F60" s="95"/>
+      <c r="G60" s="83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="69"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="113"/>
       <c r="D61" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E61" s="16"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="74"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="83"/>
     </row>
     <row r="62" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="66"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="70"/>
+      <c r="A62" s="111"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="114"/>
       <c r="D62" s="15" t="s">
         <v>142</v>
       </c>
       <c r="E62" s="16"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="74"/>
+      <c r="F62" s="95"/>
+      <c r="G62" s="83"/>
     </row>
     <row r="63" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="124" t="s">
+      <c r="A63" s="111"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="54" t="s">
         <v>47</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="67" t="s">
+      <c r="F63" s="95"/>
+      <c r="G63" s="53" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="66"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="125"/>
+      <c r="A64" s="111"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E64" s="10"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="67"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="53"/>
     </row>
     <row r="65" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="126"/>
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="67"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="53"/>
     </row>
     <row r="66" spans="1:7" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="66"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="75" t="s">
+      <c r="A66" s="111"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="87" t="s">
         <v>48</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="67" t="s">
+      <c r="F66" s="95"/>
+      <c r="G66" s="53" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="75"/>
+      <c r="A67" s="111"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="87"/>
       <c r="D67" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="61"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="67"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="53"/>
     </row>
     <row r="68" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="75"/>
+      <c r="A68" s="111"/>
+      <c r="B68" s="111"/>
+      <c r="C68" s="87"/>
       <c r="D68" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="62"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="67"/>
+      <c r="E68" s="93"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="53"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="63"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="65"/>
+      <c r="A69" s="71"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="73"/>
     </row>
     <row r="70" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="110">
         <v>1</v>
       </c>
-      <c r="C70" s="76" t="s">
+      <c r="C70" s="88" t="s">
         <v>161</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>140</v>
       </c>
       <c r="E70" s="22"/>
-      <c r="F70" s="86" t="s">
+      <c r="F70" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="122" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="77"/>
+      <c r="A71" s="110"/>
+      <c r="B71" s="110"/>
+      <c r="C71" s="89"/>
       <c r="D71" s="21" t="s">
         <v>141</v>
       </c>
       <c r="E71" s="22"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="39"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="123"/>
     </row>
     <row r="72" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="78"/>
+      <c r="A72" s="110"/>
+      <c r="B72" s="110"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="21" t="s">
         <v>142</v>
       </c>
       <c r="E72" s="22"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="124"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="79" t="s">
+      <c r="A73" s="110"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="91" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="41" t="s">
+      <c r="F73" s="40"/>
+      <c r="G73" s="84" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="79"/>
+      <c r="A74" s="110"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="91"/>
       <c r="D74" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="42"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="85"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="79"/>
+      <c r="A75" s="110"/>
+      <c r="B75" s="110"/>
+      <c r="C75" s="91"/>
       <c r="D75" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="88"/>
-      <c r="G75" s="43"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="86"/>
     </row>
     <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="63"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="65"/>
+      <c r="A76" s="71"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="72"/>
+      <c r="D76" s="72"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="73"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="37">
+      <c r="B77" s="110">
         <v>1</v>
       </c>
-      <c r="C77" s="51" t="s">
-        <v>17</v>
+      <c r="C77" s="100" t="s">
+        <v>168</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="86" t="s">
+      <c r="F77" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="G77" s="41" t="s">
+      <c r="G77" s="84" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="37"/>
-      <c r="B78" s="37"/>
-      <c r="C78" s="52"/>
+      <c r="A78" s="110"/>
+      <c r="B78" s="110"/>
+      <c r="C78" s="101"/>
       <c r="D78" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="42"/>
+      <c r="F78" s="40"/>
+      <c r="G78" s="85"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="37"/>
-      <c r="B79" s="37"/>
-      <c r="C79" s="53"/>
+      <c r="A79" s="110"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="43"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="86"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="37"/>
-      <c r="B80" s="37"/>
-      <c r="C80" s="51" t="s">
+      <c r="A80" s="110"/>
+      <c r="B80" s="110"/>
+      <c r="C80" s="100" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="41" t="s">
+      <c r="F80" s="40"/>
+      <c r="G80" s="84" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="52"/>
+      <c r="A81" s="110"/>
+      <c r="B81" s="110"/>
+      <c r="C81" s="101"/>
       <c r="D81" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E81" s="84"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="42"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="85"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
-      <c r="C82" s="53"/>
+      <c r="A82" s="110"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="102"/>
       <c r="D82" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E82" s="85"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="43"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="40"/>
+      <c r="G82" s="86"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="37"/>
-      <c r="B83" s="37"/>
-      <c r="C83" s="83" t="s">
-        <v>20</v>
+      <c r="A83" s="110"/>
+      <c r="B83" s="110"/>
+      <c r="C83" s="103" t="s">
+        <v>169</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="41" t="s">
+      <c r="F83" s="40"/>
+      <c r="G83" s="84" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="37"/>
-      <c r="B84" s="37"/>
-      <c r="C84" s="83"/>
+      <c r="A84" s="110"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="103"/>
       <c r="D84" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="42"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="85"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="37"/>
-      <c r="B85" s="37"/>
-      <c r="C85" s="83"/>
+      <c r="A85" s="110"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="103"/>
       <c r="D85" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="88"/>
-      <c r="G85" s="43"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="86"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="63"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65"/>
+      <c r="A86" s="71"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="72"/>
+      <c r="G86" s="73"/>
     </row>
     <row r="87" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="110" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="37">
-        <v>2</v>
-      </c>
-      <c r="C87" s="47" t="s">
+      <c r="B87" s="110">
+        <v>2</v>
+      </c>
+      <c r="C87" s="77" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E87" s="19"/>
-      <c r="F87" s="104" t="s">
+      <c r="F87" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="G87" s="54" t="s">
+      <c r="G87" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="48"/>
+      <c r="A88" s="110"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="55"/>
+      <c r="F88" s="108"/>
+      <c r="G88" s="98"/>
     </row>
     <row r="89" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="49"/>
+      <c r="A89" s="110"/>
+      <c r="B89" s="110"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E89" s="19"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="56"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="99"/>
     </row>
     <row r="90" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="37"/>
-      <c r="B90" s="37"/>
-      <c r="C90" s="50" t="s">
+      <c r="A90" s="110"/>
+      <c r="B90" s="110"/>
+      <c r="C90" s="125" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E90" s="19"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="54" t="s">
+      <c r="F90" s="108"/>
+      <c r="G90" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="37"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="48"/>
+      <c r="A91" s="110"/>
+      <c r="B91" s="110"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E91" s="19"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="55"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="98"/>
     </row>
     <row r="92" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="37"/>
-      <c r="B92" s="37"/>
-      <c r="C92" s="49"/>
+      <c r="A92" s="110"/>
+      <c r="B92" s="110"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E92" s="19"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="56"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="99"/>
     </row>
     <row r="93" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="37"/>
-      <c r="B93" s="37"/>
-      <c r="C93" s="47" t="s">
+      <c r="A93" s="110"/>
+      <c r="B93" s="110"/>
+      <c r="C93" s="77" t="s">
         <v>107</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E93" s="19"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="54" t="s">
+      <c r="F93" s="108"/>
+      <c r="G93" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="37"/>
-      <c r="B94" s="37"/>
-      <c r="C94" s="48"/>
+      <c r="A94" s="110"/>
+      <c r="B94" s="110"/>
+      <c r="C94" s="78"/>
       <c r="D94" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E94" s="19"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="55"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="98"/>
     </row>
     <row r="95" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="37"/>
-      <c r="B95" s="37"/>
-      <c r="C95" s="49"/>
+      <c r="A95" s="110"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="79"/>
       <c r="D95" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E95" s="19"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="56"/>
+      <c r="F95" s="108"/>
+      <c r="G95" s="99"/>
     </row>
     <row r="96" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="37"/>
-      <c r="B96" s="37"/>
-      <c r="C96" s="44" t="s">
+      <c r="A96" s="110"/>
+      <c r="B96" s="110"/>
+      <c r="C96" s="80" t="s">
         <v>108</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E96" s="28"/>
-      <c r="F96" s="105"/>
-      <c r="G96" s="57" t="s">
+      <c r="F96" s="108"/>
+      <c r="G96" s="104" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="37"/>
-      <c r="B97" s="37"/>
-      <c r="C97" s="45"/>
+      <c r="A97" s="110"/>
+      <c r="B97" s="110"/>
+      <c r="C97" s="81"/>
       <c r="D97" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E97" s="28"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="58"/>
+      <c r="F97" s="108"/>
+      <c r="G97" s="105"/>
     </row>
     <row r="98" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="37"/>
-      <c r="B98" s="37"/>
-      <c r="C98" s="46"/>
+      <c r="A98" s="110"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="82"/>
       <c r="D98" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E98" s="28"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="59"/>
+      <c r="F98" s="108"/>
+      <c r="G98" s="106"/>
     </row>
     <row r="99" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="37"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="47" t="s">
+      <c r="A99" s="110"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="77" t="s">
         <v>109</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E99" s="19"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="54" t="s">
+      <c r="F99" s="108"/>
+      <c r="G99" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="37"/>
-      <c r="B100" s="37"/>
-      <c r="C100" s="48"/>
+      <c r="A100" s="110"/>
+      <c r="B100" s="110"/>
+      <c r="C100" s="78"/>
       <c r="D100" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E100" s="19"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="55"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="98"/>
     </row>
     <row r="101" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="37"/>
-      <c r="B101" s="37"/>
-      <c r="C101" s="49"/>
+      <c r="A101" s="110"/>
+      <c r="B101" s="110"/>
+      <c r="C101" s="79"/>
       <c r="D101" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E101" s="19"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="56"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="99"/>
     </row>
     <row r="102" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="37"/>
-      <c r="B102" s="37"/>
-      <c r="C102" s="44" t="s">
+      <c r="A102" s="110"/>
+      <c r="B102" s="110"/>
+      <c r="C102" s="80" t="s">
         <v>110</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E102" s="28"/>
-      <c r="F102" s="105"/>
-      <c r="G102" s="57" t="s">
+      <c r="F102" s="108"/>
+      <c r="G102" s="104" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="37"/>
-      <c r="B103" s="37"/>
-      <c r="C103" s="45"/>
+      <c r="A103" s="110"/>
+      <c r="B103" s="110"/>
+      <c r="C103" s="81"/>
       <c r="D103" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E103" s="28"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="58"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="105"/>
     </row>
     <row r="104" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="46"/>
+      <c r="A104" s="110"/>
+      <c r="B104" s="110"/>
+      <c r="C104" s="82"/>
       <c r="D104" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E104" s="28"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="59"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="106"/>
     </row>
     <row r="105" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="47" t="s">
+      <c r="A105" s="110"/>
+      <c r="B105" s="110"/>
+      <c r="C105" s="77" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E105" s="19"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="54" t="s">
+      <c r="F105" s="108"/>
+      <c r="G105" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="37"/>
-      <c r="B106" s="37"/>
-      <c r="C106" s="48"/>
+      <c r="A106" s="110"/>
+      <c r="B106" s="110"/>
+      <c r="C106" s="78"/>
       <c r="D106" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E106" s="19"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="55"/>
+      <c r="F106" s="108"/>
+      <c r="G106" s="98"/>
     </row>
     <row r="107" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="37"/>
-      <c r="B107" s="37"/>
-      <c r="C107" s="49"/>
+      <c r="A107" s="110"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E107" s="19"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="56"/>
+      <c r="F107" s="108"/>
+      <c r="G107" s="99"/>
     </row>
     <row r="108" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="37"/>
-      <c r="B108" s="37"/>
-      <c r="C108" s="44" t="s">
+      <c r="A108" s="110"/>
+      <c r="B108" s="110"/>
+      <c r="C108" s="80" t="s">
         <v>112</v>
       </c>
       <c r="D108" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E108" s="28"/>
-      <c r="F108" s="105"/>
-      <c r="G108" s="57" t="s">
+      <c r="F108" s="108"/>
+      <c r="G108" s="104" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="37"/>
-      <c r="B109" s="37"/>
-      <c r="C109" s="45"/>
+      <c r="A109" s="110"/>
+      <c r="B109" s="110"/>
+      <c r="C109" s="81"/>
       <c r="D109" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E109" s="28"/>
-      <c r="F109" s="105"/>
-      <c r="G109" s="58"/>
+      <c r="F109" s="108"/>
+      <c r="G109" s="105"/>
     </row>
     <row r="110" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="37"/>
-      <c r="B110" s="37"/>
-      <c r="C110" s="46"/>
+      <c r="A110" s="110"/>
+      <c r="B110" s="110"/>
+      <c r="C110" s="82"/>
       <c r="D110" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E110" s="28"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="59"/>
+      <c r="F110" s="108"/>
+      <c r="G110" s="106"/>
     </row>
     <row r="111" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="37"/>
-      <c r="B111" s="37"/>
-      <c r="C111" s="47" t="s">
+      <c r="A111" s="110"/>
+      <c r="B111" s="110"/>
+      <c r="C111" s="77" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E111" s="19"/>
-      <c r="F111" s="105"/>
-      <c r="G111" s="54" t="s">
+      <c r="F111" s="108"/>
+      <c r="G111" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="37"/>
-      <c r="B112" s="37"/>
-      <c r="C112" s="48"/>
+      <c r="A112" s="110"/>
+      <c r="B112" s="110"/>
+      <c r="C112" s="78"/>
       <c r="D112" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="55"/>
+      <c r="F112" s="108"/>
+      <c r="G112" s="98"/>
     </row>
     <row r="113" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="37"/>
-      <c r="B113" s="37"/>
-      <c r="C113" s="49"/>
+      <c r="A113" s="110"/>
+      <c r="B113" s="110"/>
+      <c r="C113" s="79"/>
       <c r="D113" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="105"/>
-      <c r="G113" s="56"/>
+      <c r="F113" s="108"/>
+      <c r="G113" s="99"/>
     </row>
     <row r="114" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="37"/>
-      <c r="B114" s="37"/>
-      <c r="C114" s="44" t="s">
+      <c r="A114" s="110"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="80" t="s">
         <v>114</v>
       </c>
       <c r="D114" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E114" s="28"/>
-      <c r="F114" s="105"/>
-      <c r="G114" s="57" t="s">
+      <c r="F114" s="108"/>
+      <c r="G114" s="104" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="37"/>
-      <c r="B115" s="37"/>
-      <c r="C115" s="45"/>
+      <c r="A115" s="110"/>
+      <c r="B115" s="110"/>
+      <c r="C115" s="81"/>
       <c r="D115" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E115" s="28"/>
-      <c r="F115" s="105"/>
-      <c r="G115" s="58"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="105"/>
     </row>
     <row r="116" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37"/>
-      <c r="C116" s="46"/>
+      <c r="A116" s="110"/>
+      <c r="B116" s="110"/>
+      <c r="C116" s="82"/>
       <c r="D116" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E116" s="28"/>
-      <c r="F116" s="105"/>
-      <c r="G116" s="59"/>
+      <c r="F116" s="108"/>
+      <c r="G116" s="106"/>
     </row>
     <row r="117" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="37"/>
-      <c r="B117" s="37"/>
-      <c r="C117" s="47" t="s">
+      <c r="A117" s="110"/>
+      <c r="B117" s="110"/>
+      <c r="C117" s="77" t="s">
         <v>115</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E117" s="19"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="54" t="s">
+      <c r="F117" s="108"/>
+      <c r="G117" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="37"/>
-      <c r="B118" s="37"/>
-      <c r="C118" s="48"/>
+      <c r="A118" s="110"/>
+      <c r="B118" s="110"/>
+      <c r="C118" s="78"/>
       <c r="D118" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E118" s="19"/>
-      <c r="F118" s="105"/>
-      <c r="G118" s="55"/>
+      <c r="F118" s="108"/>
+      <c r="G118" s="98"/>
     </row>
     <row r="119" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="37"/>
-      <c r="B119" s="37"/>
-      <c r="C119" s="49"/>
+      <c r="A119" s="110"/>
+      <c r="B119" s="110"/>
+      <c r="C119" s="79"/>
       <c r="D119" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E119" s="19"/>
-      <c r="F119" s="105"/>
-      <c r="G119" s="56"/>
+      <c r="F119" s="108"/>
+      <c r="G119" s="99"/>
     </row>
     <row r="120" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="37"/>
-      <c r="B120" s="37"/>
-      <c r="C120" s="44" t="s">
+      <c r="A120" s="110"/>
+      <c r="B120" s="110"/>
+      <c r="C120" s="80" t="s">
         <v>116</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E120" s="28"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="57" t="s">
+      <c r="F120" s="108"/>
+      <c r="G120" s="104" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="37"/>
-      <c r="B121" s="37"/>
-      <c r="C121" s="45"/>
+      <c r="A121" s="110"/>
+      <c r="B121" s="110"/>
+      <c r="C121" s="81"/>
       <c r="D121" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E121" s="28"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="58"/>
+      <c r="F121" s="108"/>
+      <c r="G121" s="105"/>
     </row>
     <row r="122" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="37"/>
-      <c r="B122" s="37"/>
-      <c r="C122" s="46"/>
+      <c r="A122" s="110"/>
+      <c r="B122" s="110"/>
+      <c r="C122" s="82"/>
       <c r="D122" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E122" s="28"/>
-      <c r="F122" s="105"/>
-      <c r="G122" s="59"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="106"/>
     </row>
     <row r="123" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="37"/>
-      <c r="B123" s="37"/>
-      <c r="C123" s="47" t="s">
+      <c r="A123" s="110"/>
+      <c r="B123" s="110"/>
+      <c r="C123" s="77" t="s">
         <v>117</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E123" s="19"/>
-      <c r="F123" s="105"/>
-      <c r="G123" s="54" t="s">
+      <c r="F123" s="108"/>
+      <c r="G123" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="37"/>
-      <c r="B124" s="37"/>
-      <c r="C124" s="48"/>
+      <c r="A124" s="110"/>
+      <c r="B124" s="110"/>
+      <c r="C124" s="78"/>
       <c r="D124" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E124" s="19"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="55"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="98"/>
     </row>
     <row r="125" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="37"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="49"/>
+      <c r="A125" s="110"/>
+      <c r="B125" s="110"/>
+      <c r="C125" s="79"/>
       <c r="D125" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E125" s="19"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="56"/>
+      <c r="F125" s="108"/>
+      <c r="G125" s="99"/>
     </row>
     <row r="126" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="37"/>
-      <c r="B126" s="37"/>
-      <c r="C126" s="44" t="s">
+      <c r="A126" s="110"/>
+      <c r="B126" s="110"/>
+      <c r="C126" s="80" t="s">
         <v>118</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E126" s="28"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="57" t="s">
+      <c r="F126" s="108"/>
+      <c r="G126" s="104" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="37"/>
-      <c r="B127" s="37"/>
-      <c r="C127" s="45"/>
+      <c r="A127" s="110"/>
+      <c r="B127" s="110"/>
+      <c r="C127" s="81"/>
       <c r="D127" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E127" s="28"/>
-      <c r="F127" s="105"/>
-      <c r="G127" s="58"/>
+      <c r="F127" s="108"/>
+      <c r="G127" s="105"/>
     </row>
     <row r="128" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="37"/>
-      <c r="B128" s="37"/>
-      <c r="C128" s="46"/>
+      <c r="A128" s="110"/>
+      <c r="B128" s="110"/>
+      <c r="C128" s="82"/>
       <c r="D128" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E128" s="28"/>
-      <c r="F128" s="105"/>
-      <c r="G128" s="59"/>
+      <c r="F128" s="108"/>
+      <c r="G128" s="106"/>
     </row>
     <row r="129" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="37"/>
-      <c r="B129" s="37"/>
-      <c r="C129" s="60" t="s">
+      <c r="A129" s="110"/>
+      <c r="B129" s="110"/>
+      <c r="C129" s="126" t="s">
         <v>160</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>140</v>
       </c>
       <c r="E129" s="25"/>
-      <c r="F129" s="105"/>
-      <c r="G129" s="71" t="s">
+      <c r="F129" s="108"/>
+      <c r="G129" s="115" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="37"/>
-      <c r="B130" s="37"/>
-      <c r="C130" s="60"/>
+      <c r="A130" s="110"/>
+      <c r="B130" s="110"/>
+      <c r="C130" s="126"/>
       <c r="D130" s="24" t="s">
         <v>141</v>
       </c>
       <c r="E130" s="25"/>
-      <c r="F130" s="105"/>
-      <c r="G130" s="72"/>
+      <c r="F130" s="108"/>
+      <c r="G130" s="116"/>
     </row>
     <row r="131" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="37"/>
-      <c r="B131" s="37"/>
-      <c r="C131" s="60"/>
+      <c r="A131" s="110"/>
+      <c r="B131" s="110"/>
+      <c r="C131" s="126"/>
       <c r="D131" s="24" t="s">
         <v>142</v>
       </c>
       <c r="E131" s="25"/>
-      <c r="F131" s="106"/>
-      <c r="G131" s="73"/>
+      <c r="F131" s="109"/>
+      <c r="G131" s="117"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="63"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="64"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="65"/>
+      <c r="A132" s="71"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="72"/>
+      <c r="F132" s="72"/>
+      <c r="G132" s="73"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="37" t="s">
+      <c r="A133" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="B133" s="37">
+      <c r="B133" s="110">
         <v>1</v>
       </c>
-      <c r="C133" s="107" t="s">
+      <c r="C133" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D133" s="108"/>
-      <c r="E133" s="108"/>
-      <c r="F133" s="108"/>
-      <c r="G133" s="109"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="32"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="37"/>
-      <c r="B134" s="37"/>
-      <c r="C134" s="110"/>
-      <c r="D134" s="111"/>
-      <c r="E134" s="111"/>
-      <c r="F134" s="111"/>
-      <c r="G134" s="112"/>
+      <c r="A134" s="110"/>
+      <c r="B134" s="110"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
+      <c r="F134" s="34"/>
+      <c r="G134" s="35"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="37"/>
-      <c r="B135" s="37"/>
-      <c r="C135" s="110"/>
-      <c r="D135" s="111"/>
-      <c r="E135" s="111"/>
-      <c r="F135" s="111"/>
-      <c r="G135" s="112"/>
+      <c r="A135" s="110"/>
+      <c r="B135" s="110"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="35"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="37"/>
-      <c r="B136" s="37"/>
-      <c r="C136" s="110"/>
-      <c r="D136" s="111"/>
-      <c r="E136" s="111"/>
-      <c r="F136" s="111"/>
-      <c r="G136" s="112"/>
+      <c r="A136" s="110"/>
+      <c r="B136" s="110"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="35"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A137" s="37"/>
-      <c r="B137" s="37"/>
-      <c r="C137" s="110"/>
-      <c r="D137" s="111"/>
-      <c r="E137" s="111"/>
-      <c r="F137" s="111"/>
-      <c r="G137" s="112"/>
+      <c r="A137" s="110"/>
+      <c r="B137" s="110"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="34"/>
+      <c r="F137" s="34"/>
+      <c r="G137" s="35"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="37"/>
-      <c r="B138" s="37"/>
-      <c r="C138" s="110"/>
-      <c r="D138" s="111"/>
-      <c r="E138" s="111"/>
-      <c r="F138" s="111"/>
-      <c r="G138" s="112"/>
+      <c r="A138" s="110"/>
+      <c r="B138" s="110"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="34"/>
+      <c r="F138" s="34"/>
+      <c r="G138" s="35"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="37"/>
-      <c r="B139" s="37"/>
-      <c r="C139" s="110"/>
-      <c r="D139" s="111"/>
-      <c r="E139" s="111"/>
-      <c r="F139" s="111"/>
-      <c r="G139" s="112"/>
+      <c r="A139" s="110"/>
+      <c r="B139" s="110"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="35"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="37"/>
-      <c r="B140" s="37"/>
-      <c r="C140" s="110"/>
-      <c r="D140" s="111"/>
-      <c r="E140" s="111"/>
-      <c r="F140" s="111"/>
-      <c r="G140" s="112"/>
+      <c r="A140" s="110"/>
+      <c r="B140" s="110"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="34"/>
+      <c r="E140" s="34"/>
+      <c r="F140" s="34"/>
+      <c r="G140" s="35"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="37"/>
-      <c r="B141" s="37"/>
-      <c r="C141" s="113"/>
-      <c r="D141" s="114"/>
-      <c r="E141" s="114"/>
-      <c r="F141" s="114"/>
-      <c r="G141" s="115"/>
+      <c r="A141" s="110"/>
+      <c r="B141" s="110"/>
+      <c r="C141" s="36"/>
+      <c r="D141" s="37"/>
+      <c r="E141" s="37"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="38"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A143" s="30" t="s">
+      <c r="A143" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="30"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
-      <c r="E143" s="31">
+      <c r="B143" s="118"/>
+      <c r="C143" s="118"/>
+      <c r="D143" s="118"/>
+      <c r="E143" s="119">
         <f>SUM(E27:E68,E70:E75,E77:E85,E87:E131)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="32"/>
-      <c r="G143" s="33"/>
+      <c r="F143" s="120"/>
+      <c r="G143" s="121"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C143"/>
   <mergeCells count="126">
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="A77:A85"/>
+    <mergeCell ref="B77:B85"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="A87:A131"/>
+    <mergeCell ref="B87:B131"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="G99:G101"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="G105:G107"/>
+    <mergeCell ref="G108:G110"/>
+    <mergeCell ref="G111:G113"/>
+    <mergeCell ref="C129:C131"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="B133:B141"/>
+    <mergeCell ref="A27:A68"/>
+    <mergeCell ref="B27:B68"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="G120:G122"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="F87:F131"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F27:F68"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="F77:F85"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
     <mergeCell ref="C133:G141"/>
     <mergeCell ref="F70:F75"/>
     <mergeCell ref="G3:G5"/>
@@ -3363,108 +3473,6 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F77:F85"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F27:F68"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="G120:G122"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="F87:F131"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A133:A141"/>
-    <mergeCell ref="B133:B141"/>
-    <mergeCell ref="A27:A68"/>
-    <mergeCell ref="B27:B68"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="G117:G119"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="A77:A85"/>
-    <mergeCell ref="B77:B85"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="A87:A131"/>
-    <mergeCell ref="B87:B131"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="G99:G101"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="G105:G107"/>
-    <mergeCell ref="G108:G110"/>
-    <mergeCell ref="G111:G113"/>
-    <mergeCell ref="C129:C131"/>
-    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workfile/锐安项目文档/app/待办/APP待办开发工范围-0829.xlsx
+++ b/workfile/锐安项目文档/app/待办/APP待办开发工范围-0829.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$143</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -525,63 +525,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>上线试运行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求待确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售项目-立项审核流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证金押金变更申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资类采购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26-9.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划9.16上线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划9.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划9月30上线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类资金使用申请_作废</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用类资金支付申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>预算</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>上线试运行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用类资金使用管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求待确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售项目-立项审核流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>保证金押金变更申请</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物资类采购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.26-9.9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划9.16上线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划9.23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划9月30上线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用类资金使用申请_作废</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用类资金支付申请</t>
+    <t>合作协议管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,6 +921,231 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -948,24 +1173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -990,9 +1197,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1002,215 +1206,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1518,11 +1518,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83:C85"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.875" customWidth="1"/>
     <col min="2" max="2" width="4.875" customWidth="1"/>
@@ -1533,7 +1533,7 @@
     <col min="7" max="7" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1556,11 +1556,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:7" s="7" customFormat="1">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="90">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1571,14 +1571,14 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="42" t="s">
+    <row r="3" spans="1:7" s="7" customFormat="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="93" t="s">
         <v>64</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -1587,53 +1587,53 @@
       <c r="E3" s="5">
         <v>0.5</v>
       </c>
-      <c r="F3" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="42" t="s">
+      <c r="F3" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="93" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="43"/>
+    <row r="4" spans="1:7" s="7" customFormat="1">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E4" s="5">
         <v>0.5</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="44"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1">
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="62" t="s">
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1">
+      <c r="A6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1">
+      <c r="A7" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="90">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1648,10 +1648,10 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="45" t="s">
+    <row r="8" spans="1:7" s="7" customFormat="1">
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="114" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1660,30 +1660,30 @@
       <c r="E8" s="5">
         <v>0.5</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G8" s="42" t="s">
+      <c r="F8" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="93" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="46"/>
+    <row r="9" spans="1:7" s="7" customFormat="1">
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="115"/>
       <c r="D9" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="42" t="s">
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+    </row>
+    <row r="10" spans="1:7" s="7" customFormat="1">
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="93" t="s">
         <v>52</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1692,43 +1692,43 @@
       <c r="E10" s="5">
         <v>0.5</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="42" t="s">
+      <c r="F10" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="93" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="43"/>
+    <row r="11" spans="1:7" s="7" customFormat="1">
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E11" s="5">
         <v>0.5</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="44"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+    </row>
+    <row r="12" spans="1:7" s="7" customFormat="1">
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="42" t="s">
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+    </row>
+    <row r="13" spans="1:7" s="7" customFormat="1">
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1737,43 +1737,43 @@
       <c r="E13" s="8">
         <v>2</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="43"/>
+    <row r="14" spans="1:7" s="7" customFormat="1">
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E14" s="8">
         <v>3</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="44"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1">
+      <c r="A15" s="91"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E15" s="8">
         <v>2</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="42" t="s">
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="93" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1782,54 +1782,54 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="50" t="s">
+      <c r="F16" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="119" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="43"/>
+    <row r="17" spans="1:7" s="7" customFormat="1">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E17" s="8">
         <v>2</v>
       </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="44"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="120"/>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="6" t="s">
         <v>142</v>
       </c>
       <c r="E18" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="70" t="s">
+      <c r="F18" s="94"/>
+      <c r="G18" s="121"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A20" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="95"/>
+      <c r="C20" s="100" t="s">
         <v>135</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -1838,43 +1838,43 @@
       <c r="E20" s="13">
         <v>1</v>
       </c>
-      <c r="F20" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="47" t="s">
+      <c r="F20" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="116" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="70"/>
+    <row r="21" spans="1:7" s="14" customFormat="1">
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E21" s="13">
         <v>1</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="48"/>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="70"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="117"/>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1">
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
       </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="67" t="s">
+      <c r="F22" s="99"/>
+      <c r="G22" s="118"/>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="97" t="s">
         <v>136</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -1883,1470 +1883,1572 @@
       <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="F23" s="70" t="s">
-        <v>156</v>
-      </c>
-      <c r="G23" s="47" t="s">
+      <c r="F23" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="116" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="68"/>
+    <row r="24" spans="1:7" s="14" customFormat="1">
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="48"/>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="69"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="117"/>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1">
+      <c r="A25" s="96"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="99"/>
       <c r="D25" s="12" t="s">
         <v>142</v>
       </c>
       <c r="E25" s="13">
         <v>1</v>
       </c>
-      <c r="F25" s="70"/>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="73"/>
-    </row>
-    <row r="27" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="111">
+      <c r="F25" s="100"/>
+      <c r="G25" s="118"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
+    </row>
+    <row r="27" spans="1:7" s="11" customFormat="1">
+      <c r="A27" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="66">
         <v>1</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="10"/>
-      <c r="F27" s="94" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="53" t="s">
+      <c r="F27" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="58"/>
+    <row r="28" spans="1:7" s="11" customFormat="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="35"/>
       <c r="D28" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="59"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="67"/>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E29" s="10"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="57" t="s">
+      <c r="F29" s="84"/>
+      <c r="G29" s="67"/>
+    </row>
+    <row r="30" spans="1:7" s="11" customFormat="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="34" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="53" t="s">
+      <c r="F30" s="84"/>
+      <c r="G30" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="58"/>
+    <row r="31" spans="1:7" s="11" customFormat="1">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="92"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="59"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="67"/>
+    </row>
+    <row r="32" spans="1:7" s="11" customFormat="1">
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="93"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="57" t="s">
+      <c r="E32" s="62"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="67"/>
+    </row>
+    <row r="33" spans="1:7" s="11" customFormat="1">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E33" s="10"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="53" t="s">
+      <c r="F33" s="84"/>
+      <c r="G33" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="58"/>
+    <row r="34" spans="1:7" s="11" customFormat="1">
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="35"/>
       <c r="D34" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="59"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="67"/>
+    </row>
+    <row r="35" spans="1:7" s="11" customFormat="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E35" s="10"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="53"/>
-    </row>
-    <row r="36" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="57" t="s">
+      <c r="F35" s="84"/>
+      <c r="G35" s="67"/>
+    </row>
+    <row r="36" spans="1:7" s="11" customFormat="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="34" t="s">
         <v>38</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="53" t="s">
+      <c r="F36" s="84"/>
+      <c r="G36" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
-      <c r="C37" s="58"/>
+    <row r="37" spans="1:7" s="11" customFormat="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="53"/>
-    </row>
-    <row r="38" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
-      <c r="C38" s="59"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="67"/>
+    </row>
+    <row r="38" spans="1:7" s="11" customFormat="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="93"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="53"/>
-    </row>
-    <row r="39" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="57" t="s">
+      <c r="E38" s="62"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="67"/>
+    </row>
+    <row r="39" spans="1:7" s="11" customFormat="1">
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="34" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E39" s="10"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="53" t="s">
+      <c r="F39" s="84"/>
+      <c r="G39" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="58"/>
+    <row r="40" spans="1:7" s="11" customFormat="1">
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E40" s="10"/>
-      <c r="F40" s="95"/>
-      <c r="G40" s="53"/>
-    </row>
-    <row r="41" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="59"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="67"/>
+    </row>
+    <row r="41" spans="1:7" s="11" customFormat="1">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E41" s="10"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="53"/>
-    </row>
-    <row r="42" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="57" t="s">
+      <c r="F41" s="84"/>
+      <c r="G41" s="67"/>
+    </row>
+    <row r="42" spans="1:7" s="11" customFormat="1">
+      <c r="A42" s="66"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="34" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E42" s="10"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="53" t="s">
+      <c r="F42" s="84"/>
+      <c r="G42" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="111"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="58"/>
+    <row r="43" spans="1:7" s="11" customFormat="1">
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="35"/>
       <c r="D43" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="53"/>
-    </row>
-    <row r="44" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="111"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="59"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="67"/>
+    </row>
+    <row r="44" spans="1:7" s="11" customFormat="1">
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="93"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="53"/>
-    </row>
-    <row r="45" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="57" t="s">
+      <c r="E44" s="62"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="1:7" s="11" customFormat="1">
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E45" s="10"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="53" t="s">
+      <c r="F45" s="84"/>
+      <c r="G45" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="58"/>
+    <row r="46" spans="1:7" s="11" customFormat="1">
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E46" s="10"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="53"/>
-    </row>
-    <row r="47" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="59"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="67"/>
+    </row>
+    <row r="47" spans="1:7" s="11" customFormat="1">
+      <c r="A47" s="66"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E47" s="10"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="53"/>
-    </row>
-    <row r="48" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="111"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="57" t="s">
+      <c r="F47" s="84"/>
+      <c r="G47" s="67"/>
+    </row>
+    <row r="48" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A48" s="66"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="53" t="s">
+      <c r="F48" s="84"/>
+      <c r="G48" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="58"/>
+    <row r="49" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="35"/>
       <c r="D49" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="92"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="53"/>
-    </row>
-    <row r="50" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="59"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="50" spans="1:7" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A50" s="66"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="36"/>
       <c r="D50" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E50" s="93"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="53"/>
-    </row>
-    <row r="51" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="57" t="s">
+      <c r="E50" s="62"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="67"/>
+    </row>
+    <row r="51" spans="1:7" s="11" customFormat="1">
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="34" t="s">
         <v>43</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E51" s="10"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="53" t="s">
+      <c r="F51" s="84"/>
+      <c r="G51" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="58"/>
+    <row r="52" spans="1:7" s="11" customFormat="1">
+      <c r="A52" s="66"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="35"/>
       <c r="D52" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E52" s="10"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="53"/>
-    </row>
-    <row r="53" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="59"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="67"/>
+    </row>
+    <row r="53" spans="1:7" s="11" customFormat="1">
+      <c r="A53" s="66"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E53" s="10"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="53"/>
-    </row>
-    <row r="54" spans="1:7" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="57" t="s">
+      <c r="F53" s="84"/>
+      <c r="G53" s="67"/>
+    </row>
+    <row r="54" spans="1:7" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A54" s="66"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="34" t="s">
         <v>150</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E54" s="10"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="53" t="s">
+      <c r="F54" s="84"/>
+      <c r="G54" s="67" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="58"/>
+    <row r="55" spans="1:7" s="11" customFormat="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E55" s="92"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="53"/>
-    </row>
-    <row r="56" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="59"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="67"/>
+    </row>
+    <row r="56" spans="1:7" s="11" customFormat="1">
+      <c r="A56" s="66"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="36"/>
       <c r="D56" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="93"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="53"/>
-    </row>
-    <row r="57" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="111"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="112" t="s">
+      <c r="E56" s="62"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="67"/>
+    </row>
+    <row r="57" spans="1:7" s="17" customFormat="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="68" t="s">
         <v>45</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E57" s="16"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="83" t="s">
+      <c r="F57" s="84"/>
+      <c r="G57" s="77" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="111"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="113"/>
+    <row r="58" spans="1:7" s="17" customFormat="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E58" s="16"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="83"/>
-    </row>
-    <row r="59" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="111"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="114"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="77"/>
+    </row>
+    <row r="59" spans="1:7" s="17" customFormat="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="70"/>
       <c r="D59" s="15" t="s">
         <v>142</v>
       </c>
       <c r="E59" s="16"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="83"/>
-    </row>
-    <row r="60" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="111"/>
-      <c r="B60" s="111"/>
-      <c r="C60" s="112" t="s">
+      <c r="F59" s="84"/>
+      <c r="G59" s="77"/>
+    </row>
+    <row r="60" spans="1:7" s="17" customFormat="1">
+      <c r="A60" s="66"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="68" t="s">
         <v>46</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>140</v>
       </c>
       <c r="E60" s="16"/>
-      <c r="F60" s="95"/>
-      <c r="G60" s="83" t="s">
+      <c r="F60" s="84"/>
+      <c r="G60" s="77" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="111"/>
-      <c r="B61" s="111"/>
-      <c r="C61" s="113"/>
+    <row r="61" spans="1:7" s="17" customFormat="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="15" t="s">
         <v>141</v>
       </c>
       <c r="E61" s="16"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="83"/>
-    </row>
-    <row r="62" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="111"/>
-      <c r="B62" s="111"/>
-      <c r="C62" s="114"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="77"/>
+    </row>
+    <row r="62" spans="1:7" s="17" customFormat="1">
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="70"/>
       <c r="D62" s="15" t="s">
         <v>142</v>
       </c>
       <c r="E62" s="16"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="83"/>
-    </row>
-    <row r="63" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="111"/>
-      <c r="B63" s="111"/>
-      <c r="C63" s="54" t="s">
+      <c r="F62" s="84"/>
+      <c r="G62" s="77"/>
+    </row>
+    <row r="63" spans="1:7" s="11" customFormat="1">
+      <c r="A63" s="66"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="122" t="s">
         <v>47</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E63" s="10"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="53" t="s">
+      <c r="F63" s="84"/>
+      <c r="G63" s="67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="111"/>
-      <c r="B64" s="111"/>
-      <c r="C64" s="55"/>
+    <row r="64" spans="1:7" s="11" customFormat="1">
+      <c r="A64" s="66"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="9" t="s">
         <v>141</v>
       </c>
       <c r="E64" s="10"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="53"/>
-    </row>
-    <row r="65" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="111"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="56"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="67"/>
+    </row>
+    <row r="65" spans="1:7" s="11" customFormat="1">
+      <c r="A65" s="66"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="124"/>
       <c r="D65" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E65" s="10"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="53"/>
-    </row>
-    <row r="66" spans="1:7" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="111"/>
-      <c r="B66" s="111"/>
-      <c r="C66" s="87" t="s">
+      <c r="F65" s="84"/>
+      <c r="G65" s="67"/>
+    </row>
+    <row r="66" spans="1:7" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A66" s="66"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="78" t="s">
         <v>48</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>140</v>
       </c>
       <c r="E66" s="10"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="53" t="s">
+      <c r="F66" s="84"/>
+      <c r="G66" s="67" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="111"/>
-      <c r="B67" s="111"/>
-      <c r="C67" s="87"/>
+    <row r="67" spans="1:7" s="11" customFormat="1">
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E67" s="92"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="53"/>
-    </row>
-    <row r="68" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="111"/>
-      <c r="B68" s="111"/>
-      <c r="C68" s="87"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="84"/>
+      <c r="G67" s="67"/>
+    </row>
+    <row r="68" spans="1:7" s="11" customFormat="1">
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="78"/>
       <c r="D68" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E68" s="93"/>
-      <c r="F68" s="96"/>
-      <c r="G68" s="53"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69" s="71"/>
-      <c r="B69" s="72"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="72"/>
-      <c r="G69" s="73"/>
-    </row>
-    <row r="70" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="110" t="s">
+      <c r="E68" s="62"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="67"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="63"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="65"/>
+    </row>
+    <row r="70" spans="1:7" s="23" customFormat="1">
+      <c r="A70" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="110">
+      <c r="B70" s="37">
         <v>1</v>
       </c>
-      <c r="C70" s="88" t="s">
-        <v>161</v>
+      <c r="C70" s="79" t="s">
+        <v>159</v>
       </c>
       <c r="D70" s="21" t="s">
         <v>140</v>
       </c>
       <c r="E70" s="22"/>
-      <c r="F70" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="G70" s="122" t="s">
+      <c r="F70" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="G70" s="38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="110"/>
-      <c r="B71" s="110"/>
-      <c r="C71" s="89"/>
+    <row r="71" spans="1:7" s="23" customFormat="1">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="80"/>
       <c r="D71" s="21" t="s">
         <v>141</v>
       </c>
       <c r="E71" s="22"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="123"/>
-    </row>
-    <row r="72" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="110"/>
-      <c r="B72" s="110"/>
-      <c r="C72" s="90"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="39"/>
+    </row>
+    <row r="72" spans="1:7" s="23" customFormat="1">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="81"/>
       <c r="D72" s="21" t="s">
         <v>142</v>
       </c>
       <c r="E72" s="22"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="124"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73" s="110"/>
-      <c r="B73" s="110"/>
-      <c r="C73" s="91" t="s">
+      <c r="F72" s="88"/>
+      <c r="G72" s="40"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="82" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="84" t="s">
+      <c r="F73" s="88"/>
+      <c r="G73" s="41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74" s="110"/>
-      <c r="B74" s="110"/>
-      <c r="C74" s="91"/>
+    <row r="74" spans="1:7">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="85"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75" s="110"/>
-      <c r="B75" s="110"/>
-      <c r="C75" s="91"/>
+      <c r="F74" s="88"/>
+      <c r="G74" s="42"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="82"/>
       <c r="D75" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="86"/>
-    </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="72"/>
-      <c r="D76" s="72"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="73"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77" s="110" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="110">
+      <c r="F75" s="89"/>
+      <c r="G75" s="43"/>
+    </row>
+    <row r="76" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A76" s="63"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="65"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="37">
         <v>1</v>
       </c>
-      <c r="C77" s="100" t="s">
-        <v>168</v>
+      <c r="C77" s="51" t="s">
+        <v>166</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="G77" s="84" t="s">
+      <c r="F77" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="G77" s="41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78" s="110"/>
-      <c r="B78" s="110"/>
-      <c r="C78" s="101"/>
+    <row r="78" spans="1:7">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="52"/>
       <c r="D78" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="85"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79" s="110"/>
-      <c r="B79" s="110"/>
-      <c r="C79" s="102"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="42"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="53"/>
       <c r="D79" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="86"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80" s="110"/>
-      <c r="B80" s="110"/>
-      <c r="C80" s="100" t="s">
+      <c r="F79" s="88"/>
+      <c r="G79" s="43"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="51" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="84" t="s">
+      <c r="F80" s="88"/>
+      <c r="G80" s="41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A81" s="110"/>
-      <c r="B81" s="110"/>
-      <c r="C81" s="101"/>
+    <row r="81" spans="1:7">
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="52"/>
       <c r="D81" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E81" s="60"/>
-      <c r="F81" s="40"/>
-      <c r="G81" s="85"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A82" s="110"/>
-      <c r="B82" s="110"/>
-      <c r="C82" s="102"/>
+      <c r="E81" s="125"/>
+      <c r="F81" s="88"/>
+      <c r="G81" s="42"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E82" s="61"/>
-      <c r="F82" s="40"/>
-      <c r="G82" s="86"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A83" s="110"/>
-      <c r="B83" s="110"/>
-      <c r="C83" s="103" t="s">
-        <v>169</v>
+      <c r="E82" s="126"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="43"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="86" t="s">
+        <v>167</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="F83" s="40"/>
-      <c r="G83" s="84" t="s">
+      <c r="F83" s="88"/>
+      <c r="G83" s="41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A84" s="110"/>
-      <c r="B84" s="110"/>
-      <c r="C84" s="103"/>
+    <row r="84" spans="1:7">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="86"/>
       <c r="D84" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="40"/>
-      <c r="G84" s="85"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A85" s="110"/>
-      <c r="B85" s="110"/>
-      <c r="C85" s="103"/>
+      <c r="F84" s="88"/>
+      <c r="G84" s="42"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="86"/>
       <c r="D85" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E85" s="4"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="86"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A86" s="71"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72"/>
-      <c r="G86" s="73"/>
-    </row>
-    <row r="87" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="110" t="s">
-        <v>158</v>
-      </c>
-      <c r="B87" s="110">
-        <v>2</v>
-      </c>
-      <c r="C87" s="77" t="s">
+      <c r="F85" s="89"/>
+      <c r="G85" s="43"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="63"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="65"/>
+    </row>
+    <row r="87" spans="1:7" s="20" customFormat="1">
+      <c r="A87" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" s="37">
+        <v>2</v>
+      </c>
+      <c r="C87" s="47" t="s">
         <v>104</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E87" s="19"/>
-      <c r="F87" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="G87" s="97" t="s">
+      <c r="F87" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G87" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="110"/>
-      <c r="B88" s="110"/>
-      <c r="C88" s="78"/>
+    <row r="88" spans="1:7" s="20" customFormat="1">
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="48"/>
       <c r="D88" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E88" s="19"/>
-      <c r="F88" s="108"/>
-      <c r="G88" s="98"/>
-    </row>
-    <row r="89" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="110"/>
-      <c r="B89" s="110"/>
-      <c r="C89" s="79"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="55"/>
+    </row>
+    <row r="89" spans="1:7" s="20" customFormat="1">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E89" s="19"/>
-      <c r="F89" s="108"/>
-      <c r="G89" s="99"/>
-    </row>
-    <row r="90" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="110"/>
-      <c r="B90" s="110"/>
-      <c r="C90" s="125" t="s">
+      <c r="F89" s="75"/>
+      <c r="G89" s="56"/>
+    </row>
+    <row r="90" spans="1:7" s="20" customFormat="1">
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="50" t="s">
         <v>106</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E90" s="19"/>
-      <c r="F90" s="108"/>
-      <c r="G90" s="97" t="s">
+      <c r="F90" s="75"/>
+      <c r="G90" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="110"/>
-      <c r="B91" s="110"/>
-      <c r="C91" s="78"/>
+    <row r="91" spans="1:7" s="20" customFormat="1">
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="48"/>
       <c r="D91" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E91" s="19"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="98"/>
-    </row>
-    <row r="92" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="110"/>
-      <c r="B92" s="110"/>
-      <c r="C92" s="79"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="55"/>
+    </row>
+    <row r="92" spans="1:7" s="20" customFormat="1">
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E92" s="19"/>
-      <c r="F92" s="108"/>
-      <c r="G92" s="99"/>
-    </row>
-    <row r="93" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="110"/>
-      <c r="B93" s="110"/>
-      <c r="C93" s="77" t="s">
+      <c r="F92" s="75"/>
+      <c r="G92" s="56"/>
+    </row>
+    <row r="93" spans="1:7" s="20" customFormat="1">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="47" t="s">
         <v>107</v>
       </c>
       <c r="D93" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E93" s="19"/>
-      <c r="F93" s="108"/>
-      <c r="G93" s="97" t="s">
+      <c r="F93" s="75"/>
+      <c r="G93" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="110"/>
-      <c r="B94" s="110"/>
-      <c r="C94" s="78"/>
+    <row r="94" spans="1:7" s="20" customFormat="1">
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="48"/>
       <c r="D94" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E94" s="19"/>
-      <c r="F94" s="108"/>
-      <c r="G94" s="98"/>
-    </row>
-    <row r="95" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="110"/>
-      <c r="B95" s="110"/>
-      <c r="C95" s="79"/>
+      <c r="F94" s="75"/>
+      <c r="G94" s="55"/>
+    </row>
+    <row r="95" spans="1:7" s="20" customFormat="1">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E95" s="19"/>
-      <c r="F95" s="108"/>
-      <c r="G95" s="99"/>
-    </row>
-    <row r="96" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="110"/>
-      <c r="B96" s="110"/>
-      <c r="C96" s="80" t="s">
+      <c r="F95" s="75"/>
+      <c r="G95" s="56"/>
+    </row>
+    <row r="96" spans="1:7" s="29" customFormat="1">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="44" t="s">
         <v>108</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E96" s="28"/>
-      <c r="F96" s="108"/>
-      <c r="G96" s="104" t="s">
+      <c r="F96" s="75"/>
+      <c r="G96" s="57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="110"/>
-      <c r="B97" s="110"/>
-      <c r="C97" s="81"/>
+    <row r="97" spans="1:7" s="29" customFormat="1">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="45"/>
       <c r="D97" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E97" s="28"/>
-      <c r="F97" s="108"/>
-      <c r="G97" s="105"/>
-    </row>
-    <row r="98" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="110"/>
-      <c r="B98" s="110"/>
-      <c r="C98" s="82"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="58"/>
+    </row>
+    <row r="98" spans="1:7" s="29" customFormat="1">
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="46"/>
       <c r="D98" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E98" s="28"/>
-      <c r="F98" s="108"/>
-      <c r="G98" s="106"/>
-    </row>
-    <row r="99" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="110"/>
-      <c r="B99" s="110"/>
-      <c r="C99" s="77" t="s">
+      <c r="F98" s="75"/>
+      <c r="G98" s="59"/>
+    </row>
+    <row r="99" spans="1:7" s="20" customFormat="1">
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="47" t="s">
         <v>109</v>
       </c>
       <c r="D99" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E99" s="19"/>
-      <c r="F99" s="108"/>
-      <c r="G99" s="97" t="s">
+      <c r="F99" s="75"/>
+      <c r="G99" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="110"/>
-      <c r="B100" s="110"/>
-      <c r="C100" s="78"/>
+    <row r="100" spans="1:7" s="20" customFormat="1">
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="48"/>
       <c r="D100" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E100" s="19"/>
-      <c r="F100" s="108"/>
-      <c r="G100" s="98"/>
-    </row>
-    <row r="101" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="110"/>
-      <c r="B101" s="110"/>
-      <c r="C101" s="79"/>
+      <c r="F100" s="75"/>
+      <c r="G100" s="55"/>
+    </row>
+    <row r="101" spans="1:7" s="20" customFormat="1">
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="49"/>
       <c r="D101" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E101" s="19"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="99"/>
-    </row>
-    <row r="102" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="110"/>
-      <c r="B102" s="110"/>
-      <c r="C102" s="80" t="s">
+      <c r="F101" s="75"/>
+      <c r="G101" s="56"/>
+    </row>
+    <row r="102" spans="1:7" s="29" customFormat="1">
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="44" t="s">
         <v>110</v>
       </c>
       <c r="D102" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E102" s="28"/>
-      <c r="F102" s="108"/>
-      <c r="G102" s="104" t="s">
+      <c r="F102" s="75"/>
+      <c r="G102" s="57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="110"/>
-      <c r="B103" s="110"/>
-      <c r="C103" s="81"/>
+    <row r="103" spans="1:7" s="29" customFormat="1">
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="45"/>
       <c r="D103" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E103" s="28"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="105"/>
-    </row>
-    <row r="104" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="110"/>
-      <c r="B104" s="110"/>
-      <c r="C104" s="82"/>
+      <c r="F103" s="75"/>
+      <c r="G103" s="58"/>
+    </row>
+    <row r="104" spans="1:7" s="29" customFormat="1">
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="46"/>
       <c r="D104" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E104" s="28"/>
-      <c r="F104" s="108"/>
-      <c r="G104" s="106"/>
-    </row>
-    <row r="105" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="110"/>
-      <c r="B105" s="110"/>
-      <c r="C105" s="77" t="s">
+      <c r="F104" s="75"/>
+      <c r="G104" s="59"/>
+    </row>
+    <row r="105" spans="1:7" s="20" customFormat="1">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="47" t="s">
         <v>111</v>
       </c>
       <c r="D105" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E105" s="19"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="97" t="s">
+      <c r="F105" s="75"/>
+      <c r="G105" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="110"/>
-      <c r="B106" s="110"/>
-      <c r="C106" s="78"/>
+    <row r="106" spans="1:7" s="20" customFormat="1">
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="48"/>
       <c r="D106" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E106" s="19"/>
-      <c r="F106" s="108"/>
-      <c r="G106" s="98"/>
-    </row>
-    <row r="107" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="110"/>
-      <c r="B107" s="110"/>
-      <c r="C107" s="79"/>
+      <c r="F106" s="75"/>
+      <c r="G106" s="55"/>
+    </row>
+    <row r="107" spans="1:7" s="20" customFormat="1">
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="49"/>
       <c r="D107" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E107" s="19"/>
-      <c r="F107" s="108"/>
-      <c r="G107" s="99"/>
-    </row>
-    <row r="108" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="110"/>
-      <c r="B108" s="110"/>
-      <c r="C108" s="80" t="s">
+      <c r="F107" s="75"/>
+      <c r="G107" s="56"/>
+    </row>
+    <row r="108" spans="1:7" s="29" customFormat="1">
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="44" t="s">
         <v>112</v>
       </c>
       <c r="D108" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E108" s="28"/>
-      <c r="F108" s="108"/>
-      <c r="G108" s="104" t="s">
+      <c r="F108" s="75"/>
+      <c r="G108" s="57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="110"/>
-      <c r="B109" s="110"/>
-      <c r="C109" s="81"/>
+    <row r="109" spans="1:7" s="29" customFormat="1">
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="45"/>
       <c r="D109" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E109" s="28"/>
-      <c r="F109" s="108"/>
-      <c r="G109" s="105"/>
-    </row>
-    <row r="110" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="110"/>
-      <c r="B110" s="110"/>
-      <c r="C110" s="82"/>
+      <c r="F109" s="75"/>
+      <c r="G109" s="58"/>
+    </row>
+    <row r="110" spans="1:7" s="29" customFormat="1">
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="46"/>
       <c r="D110" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E110" s="28"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="106"/>
-    </row>
-    <row r="111" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="110"/>
-      <c r="B111" s="110"/>
-      <c r="C111" s="77" t="s">
+      <c r="F110" s="75"/>
+      <c r="G110" s="59"/>
+    </row>
+    <row r="111" spans="1:7" s="20" customFormat="1">
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="47" t="s">
         <v>113</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E111" s="19"/>
-      <c r="F111" s="108"/>
-      <c r="G111" s="97" t="s">
+      <c r="F111" s="75"/>
+      <c r="G111" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="110"/>
-      <c r="B112" s="110"/>
-      <c r="C112" s="78"/>
+    <row r="112" spans="1:7" s="20" customFormat="1">
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="48"/>
       <c r="D112" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E112" s="19"/>
-      <c r="F112" s="108"/>
-      <c r="G112" s="98"/>
-    </row>
-    <row r="113" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="110"/>
-      <c r="B113" s="110"/>
-      <c r="C113" s="79"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="55"/>
+    </row>
+    <row r="113" spans="1:7" s="20" customFormat="1">
+      <c r="A113" s="37"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="49"/>
       <c r="D113" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E113" s="19"/>
-      <c r="F113" s="108"/>
-      <c r="G113" s="99"/>
-    </row>
-    <row r="114" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="110"/>
-      <c r="B114" s="110"/>
-      <c r="C114" s="80" t="s">
+      <c r="F113" s="75"/>
+      <c r="G113" s="56"/>
+    </row>
+    <row r="114" spans="1:7" s="29" customFormat="1">
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="44" t="s">
         <v>114</v>
       </c>
       <c r="D114" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E114" s="28"/>
-      <c r="F114" s="108"/>
-      <c r="G114" s="104" t="s">
+      <c r="F114" s="75"/>
+      <c r="G114" s="57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="110"/>
-      <c r="B115" s="110"/>
-      <c r="C115" s="81"/>
+    <row r="115" spans="1:7" s="29" customFormat="1">
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="45"/>
       <c r="D115" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E115" s="28"/>
-      <c r="F115" s="108"/>
-      <c r="G115" s="105"/>
-    </row>
-    <row r="116" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="110"/>
-      <c r="B116" s="110"/>
-      <c r="C116" s="82"/>
+      <c r="F115" s="75"/>
+      <c r="G115" s="58"/>
+    </row>
+    <row r="116" spans="1:7" s="29" customFormat="1">
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="46"/>
       <c r="D116" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E116" s="28"/>
-      <c r="F116" s="108"/>
-      <c r="G116" s="106"/>
-    </row>
-    <row r="117" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="110"/>
-      <c r="B117" s="110"/>
-      <c r="C117" s="77" t="s">
+      <c r="F116" s="75"/>
+      <c r="G116" s="59"/>
+    </row>
+    <row r="117" spans="1:7" s="20" customFormat="1">
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="47" t="s">
         <v>115</v>
       </c>
       <c r="D117" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E117" s="19"/>
-      <c r="F117" s="108"/>
-      <c r="G117" s="97" t="s">
+      <c r="F117" s="75"/>
+      <c r="G117" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="110"/>
-      <c r="B118" s="110"/>
-      <c r="C118" s="78"/>
+    <row r="118" spans="1:7" s="20" customFormat="1">
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="48"/>
       <c r="D118" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E118" s="19"/>
-      <c r="F118" s="108"/>
-      <c r="G118" s="98"/>
-    </row>
-    <row r="119" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="110"/>
-      <c r="B119" s="110"/>
-      <c r="C119" s="79"/>
+      <c r="F118" s="75"/>
+      <c r="G118" s="55"/>
+    </row>
+    <row r="119" spans="1:7" s="20" customFormat="1">
+      <c r="A119" s="37"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="49"/>
       <c r="D119" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E119" s="19"/>
-      <c r="F119" s="108"/>
-      <c r="G119" s="99"/>
-    </row>
-    <row r="120" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="110"/>
-      <c r="B120" s="110"/>
-      <c r="C120" s="80" t="s">
+      <c r="F119" s="75"/>
+      <c r="G119" s="56"/>
+    </row>
+    <row r="120" spans="1:7" s="29" customFormat="1">
+      <c r="A120" s="37"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="44" t="s">
         <v>116</v>
       </c>
       <c r="D120" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E120" s="28"/>
-      <c r="F120" s="108"/>
-      <c r="G120" s="104" t="s">
+      <c r="F120" s="75"/>
+      <c r="G120" s="57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="110"/>
-      <c r="B121" s="110"/>
-      <c r="C121" s="81"/>
+    <row r="121" spans="1:7" s="29" customFormat="1">
+      <c r="A121" s="37"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="45"/>
       <c r="D121" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E121" s="28"/>
-      <c r="F121" s="108"/>
-      <c r="G121" s="105"/>
-    </row>
-    <row r="122" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="110"/>
-      <c r="B122" s="110"/>
-      <c r="C122" s="82"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="58"/>
+    </row>
+    <row r="122" spans="1:7" s="29" customFormat="1">
+      <c r="A122" s="37"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="46"/>
       <c r="D122" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E122" s="28"/>
-      <c r="F122" s="108"/>
-      <c r="G122" s="106"/>
-    </row>
-    <row r="123" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="110"/>
-      <c r="B123" s="110"/>
-      <c r="C123" s="77" t="s">
+      <c r="F122" s="75"/>
+      <c r="G122" s="59"/>
+    </row>
+    <row r="123" spans="1:7" s="20" customFormat="1">
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="47" t="s">
         <v>117</v>
       </c>
       <c r="D123" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E123" s="19"/>
-      <c r="F123" s="108"/>
-      <c r="G123" s="97" t="s">
+      <c r="F123" s="75"/>
+      <c r="G123" s="54" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="110"/>
-      <c r="B124" s="110"/>
-      <c r="C124" s="78"/>
+    <row r="124" spans="1:7" s="20" customFormat="1">
+      <c r="A124" s="37"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E124" s="19"/>
-      <c r="F124" s="108"/>
-      <c r="G124" s="98"/>
-    </row>
-    <row r="125" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="110"/>
-      <c r="B125" s="110"/>
-      <c r="C125" s="79"/>
+      <c r="F124" s="75"/>
+      <c r="G124" s="55"/>
+    </row>
+    <row r="125" spans="1:7" s="20" customFormat="1">
+      <c r="A125" s="37"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="49"/>
       <c r="D125" s="18" t="s">
         <v>142</v>
       </c>
       <c r="E125" s="19"/>
-      <c r="F125" s="108"/>
-      <c r="G125" s="99"/>
-    </row>
-    <row r="126" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="110"/>
-      <c r="B126" s="110"/>
-      <c r="C126" s="80" t="s">
+      <c r="F125" s="75"/>
+      <c r="G125" s="56"/>
+    </row>
+    <row r="126" spans="1:7" s="29" customFormat="1">
+      <c r="A126" s="37"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="44" t="s">
         <v>118</v>
       </c>
       <c r="D126" s="27" t="s">
         <v>140</v>
       </c>
       <c r="E126" s="28"/>
-      <c r="F126" s="108"/>
-      <c r="G126" s="104" t="s">
+      <c r="F126" s="75"/>
+      <c r="G126" s="57" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="110"/>
-      <c r="B127" s="110"/>
-      <c r="C127" s="81"/>
+    <row r="127" spans="1:7" s="29" customFormat="1">
+      <c r="A127" s="37"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="45"/>
       <c r="D127" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E127" s="28"/>
-      <c r="F127" s="108"/>
-      <c r="G127" s="105"/>
-    </row>
-    <row r="128" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="110"/>
-      <c r="B128" s="110"/>
-      <c r="C128" s="82"/>
+      <c r="F127" s="75"/>
+      <c r="G127" s="58"/>
+    </row>
+    <row r="128" spans="1:7" s="29" customFormat="1">
+      <c r="A128" s="37"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="46"/>
       <c r="D128" s="27" t="s">
         <v>142</v>
       </c>
       <c r="E128" s="28"/>
-      <c r="F128" s="108"/>
-      <c r="G128" s="106"/>
-    </row>
-    <row r="129" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="110"/>
-      <c r="B129" s="110"/>
-      <c r="C129" s="126" t="s">
-        <v>160</v>
+      <c r="F128" s="75"/>
+      <c r="G128" s="59"/>
+    </row>
+    <row r="129" spans="1:7" s="26" customFormat="1">
+      <c r="A129" s="37"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="60" t="s">
+        <v>158</v>
       </c>
       <c r="D129" s="24" t="s">
         <v>140</v>
       </c>
       <c r="E129" s="25"/>
-      <c r="F129" s="108"/>
-      <c r="G129" s="115" t="s">
+      <c r="F129" s="75"/>
+      <c r="G129" s="71" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="110"/>
-      <c r="B130" s="110"/>
-      <c r="C130" s="126"/>
+    <row r="130" spans="1:7" s="26" customFormat="1">
+      <c r="A130" s="37"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="60"/>
       <c r="D130" s="24" t="s">
         <v>141</v>
       </c>
       <c r="E130" s="25"/>
-      <c r="F130" s="108"/>
-      <c r="G130" s="116"/>
-    </row>
-    <row r="131" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="110"/>
-      <c r="B131" s="110"/>
-      <c r="C131" s="126"/>
+      <c r="F130" s="75"/>
+      <c r="G130" s="72"/>
+    </row>
+    <row r="131" spans="1:7" s="26" customFormat="1">
+      <c r="A131" s="37"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="60"/>
       <c r="D131" s="24" t="s">
         <v>142</v>
       </c>
       <c r="E131" s="25"/>
-      <c r="F131" s="109"/>
-      <c r="G131" s="117"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A132" s="71"/>
-      <c r="B132" s="72"/>
-      <c r="C132" s="72"/>
-      <c r="D132" s="72"/>
-      <c r="E132" s="72"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="73"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A133" s="110" t="s">
-        <v>162</v>
-      </c>
-      <c r="B133" s="110">
+      <c r="F131" s="76"/>
+      <c r="G131" s="73"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="63"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="64"/>
+      <c r="E132" s="64"/>
+      <c r="F132" s="64"/>
+      <c r="G132" s="65"/>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="37">
         <v>1</v>
       </c>
-      <c r="C133" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="32"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A134" s="110"/>
-      <c r="B134" s="110"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
-      <c r="F134" s="34"/>
-      <c r="G134" s="35"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A135" s="110"/>
-      <c r="B135" s="110"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
-      <c r="F135" s="34"/>
-      <c r="G135" s="35"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A136" s="110"/>
-      <c r="B136" s="110"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
-      <c r="F136" s="34"/>
-      <c r="G136" s="35"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A137" s="110"/>
-      <c r="B137" s="110"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="34"/>
-      <c r="E137" s="34"/>
-      <c r="F137" s="34"/>
-      <c r="G137" s="35"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A138" s="110"/>
-      <c r="B138" s="110"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="35"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A139" s="110"/>
-      <c r="B139" s="110"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="34"/>
-      <c r="E139" s="34"/>
-      <c r="F139" s="34"/>
-      <c r="G139" s="35"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A140" s="110"/>
-      <c r="B140" s="110"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="34"/>
-      <c r="E140" s="34"/>
-      <c r="F140" s="34"/>
-      <c r="G140" s="35"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A141" s="110"/>
-      <c r="B141" s="110"/>
-      <c r="C141" s="36"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="38"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A143" s="118" t="s">
+      <c r="C133" s="105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D133" s="106"/>
+      <c r="E133" s="106"/>
+      <c r="F133" s="106"/>
+      <c r="G133" s="107"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="37"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="108"/>
+      <c r="D134" s="109"/>
+      <c r="E134" s="109"/>
+      <c r="F134" s="109"/>
+      <c r="G134" s="110"/>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="37"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="108"/>
+      <c r="D135" s="109"/>
+      <c r="E135" s="109"/>
+      <c r="F135" s="109"/>
+      <c r="G135" s="110"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="37"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="108"/>
+      <c r="D136" s="109"/>
+      <c r="E136" s="109"/>
+      <c r="F136" s="109"/>
+      <c r="G136" s="110"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="37"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="108"/>
+      <c r="D137" s="109"/>
+      <c r="E137" s="109"/>
+      <c r="F137" s="109"/>
+      <c r="G137" s="110"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="37"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="108"/>
+      <c r="D138" s="109"/>
+      <c r="E138" s="109"/>
+      <c r="F138" s="109"/>
+      <c r="G138" s="110"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="37"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="108"/>
+      <c r="D139" s="109"/>
+      <c r="E139" s="109"/>
+      <c r="F139" s="109"/>
+      <c r="G139" s="110"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="37"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="108"/>
+      <c r="D140" s="109"/>
+      <c r="E140" s="109"/>
+      <c r="F140" s="109"/>
+      <c r="G140" s="110"/>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="37"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="111"/>
+      <c r="D141" s="112"/>
+      <c r="E141" s="112"/>
+      <c r="F141" s="112"/>
+      <c r="G141" s="113"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="118"/>
-      <c r="C143" s="118"/>
-      <c r="D143" s="118"/>
-      <c r="E143" s="119">
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="31">
         <f>SUM(E27:E68,E70:E75,E77:E85,E87:E131)</f>
         <v>0</v>
       </c>
-      <c r="F143" s="120"/>
-      <c r="G143" s="121"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C143"/>
   <mergeCells count="126">
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="C133:G141"/>
+    <mergeCell ref="F70:F75"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A7:A18"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G80:G82"/>
+    <mergeCell ref="G83:G85"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F27:F68"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="F77:F85"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="G96:G98"/>
+    <mergeCell ref="G114:G116"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="F87:F131"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="B133:B141"/>
+    <mergeCell ref="A27:A68"/>
+    <mergeCell ref="B27:B68"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G126:G128"/>
+    <mergeCell ref="G129:G131"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="G120:G122"/>
     <mergeCell ref="A143:D143"/>
     <mergeCell ref="E143:G143"/>
     <mergeCell ref="C30:C32"/>
@@ -3371,108 +3473,6 @@
     <mergeCell ref="G111:G113"/>
     <mergeCell ref="C129:C131"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="A133:A141"/>
-    <mergeCell ref="B133:B141"/>
-    <mergeCell ref="A27:A68"/>
-    <mergeCell ref="B27:B68"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G126:G128"/>
-    <mergeCell ref="G129:G131"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="G117:G119"/>
-    <mergeCell ref="G120:G122"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="G96:G98"/>
-    <mergeCell ref="G114:G116"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="F87:F131"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G80:G82"/>
-    <mergeCell ref="G83:G85"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F27:F68"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="F77:F85"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A7:A18"/>
-    <mergeCell ref="B7:B18"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="C133:G141"/>
-    <mergeCell ref="F70:F75"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="E81:E82"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3488,14 +3488,14 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="39.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>39</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>42</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>68</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>70</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>71</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>72</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>74</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>75</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>76</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>77</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>79</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>81</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>82</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>83</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>84</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>85</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>86</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>87</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>88</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>89</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>90</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>91</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>93</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>97</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
         <v>98</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>99</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>100</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
         <v>101</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
         <v>102</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
         <v>103</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>104</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
         <v>106</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
         <v>107</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
         <v>108</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
         <v>109</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
         <v>110</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
         <v>111</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
         <v>112</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
         <v>113</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
         <v>114</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
         <v>115</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
         <v>116</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
         <v>117</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
         <v>118</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
         <v>119</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
         <v>120</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
         <v>122</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
         <v>123</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
         <v>124</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
         <v>125</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
         <v>126</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
         <v>127</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
         <v>128</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
         <v>129</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
         <v>130</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
         <v>131</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
         <v>132</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
         <v>133</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
         <v>135</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
         <v>136</v>
       </c>
@@ -4816,7 +4816,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
